--- a/result data item/scalefree_pq.xlsx
+++ b/result data item/scalefree_pq.xlsx
@@ -3061,7 +3061,7 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -3126,25 +3126,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.19</v>
+        <v>0.2001</v>
       </c>
       <c r="C3">
-        <v>0.20551</v>
+        <v>0.23</v>
       </c>
       <c r="D3">
-        <v>0.23033</v>
+        <v>0.25133</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>0.38</v>
+        <v>0.4002</v>
       </c>
       <c r="H3">
-        <v>0.41102</v>
+        <v>0.46</v>
       </c>
       <c r="I3">
-        <v>0.46066</v>
+        <v>0.50266</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -3176,25 +3176,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.25382</v>
+        <v>0.25082</v>
       </c>
       <c r="C4">
         <v>0.28512</v>
       </c>
       <c r="D4">
-        <v>0.30961</v>
+        <v>0.30006</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0.38073</v>
+        <v>0.37623</v>
       </c>
       <c r="H4">
         <v>0.42768</v>
       </c>
       <c r="I4">
-        <v>0.46442</v>
+        <v>0.45009</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -3226,7 +3226,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.30063</v>
+        <v>0.31343</v>
       </c>
       <c r="C5">
         <v>0.32127</v>
@@ -3238,7 +3238,7 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>0.40084</v>
+        <v>0.41791</v>
       </c>
       <c r="H5">
         <v>0.42836</v>
@@ -3276,25 +3276,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.33277</v>
+        <v>0.33577</v>
       </c>
       <c r="C6">
         <v>0.36961</v>
       </c>
       <c r="D6">
-        <v>0.40213</v>
+        <v>0.40513</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6">
-        <v>0.41596</v>
+        <v>0.41971</v>
       </c>
       <c r="H6">
         <v>0.46201</v>
       </c>
       <c r="I6">
-        <v>0.50266</v>
+        <v>0.50641</v>
       </c>
       <c r="K6">
         <v>5</v>
@@ -3376,7 +3376,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.43333</v>
+        <v>0.44</v>
       </c>
       <c r="C8">
         <v>0.4683</v>
@@ -3388,7 +3388,7 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>0.50555</v>
+        <v>0.51333</v>
       </c>
       <c r="H8">
         <v>0.54635</v>
@@ -3426,10 +3426,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.44996</v>
+        <v>0.44998</v>
       </c>
       <c r="C9">
-        <v>0.52601</v>
+        <v>0.52701</v>
       </c>
       <c r="D9">
         <v>0.56391</v>
@@ -3438,10 +3438,10 @@
         <v>8</v>
       </c>
       <c r="G9">
-        <v>0.51424</v>
+        <v>0.51426</v>
       </c>
       <c r="H9">
-        <v>0.60115</v>
+        <v>0.6023</v>
       </c>
       <c r="I9">
         <v>0.64447</v>
@@ -3479,7 +3479,7 @@
         <v>0.52807</v>
       </c>
       <c r="C10">
-        <v>0.53746</v>
+        <v>0.53646</v>
       </c>
       <c r="D10">
         <v>0.59896</v>
@@ -3491,7 +3491,7 @@
         <v>0.59408</v>
       </c>
       <c r="H10">
-        <v>0.60464</v>
+        <v>0.60352</v>
       </c>
       <c r="I10">
         <v>0.67383</v>
@@ -3532,7 +3532,7 @@
         <v>0.59106</v>
       </c>
       <c r="D11">
-        <v>0.64311</v>
+        <v>0.651</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -3544,7 +3544,7 @@
         <v>0.65673</v>
       </c>
       <c r="I11">
-        <v>0.71457</v>
+        <v>0.72333</v>
       </c>
       <c r="K11">
         <v>10</v>
@@ -3582,7 +3582,7 @@
         <v>0.63891</v>
       </c>
       <c r="D12">
-        <v>0.65648</v>
+        <v>0.65769</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -3594,7 +3594,7 @@
         <v>0.7028</v>
       </c>
       <c r="I12">
-        <v>0.72213</v>
+        <v>0.72346</v>
       </c>
       <c r="K12">
         <v>11</v>
